--- a/JOBCON/SUMAGUI, GEDRICK M..xlsx
+++ b/JOBCON/SUMAGUI, GEDRICK M..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>JOBCON</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/2-4/2023</t>
   </si>
 </sst>
 </file>
@@ -548,15 +554,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,11 +566,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +1035,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1078,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1142,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1202,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1268,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1331,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1429,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1488,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1553,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1596,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1671,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1857,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1923,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1981,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2047,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2103,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2178,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2221,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2287,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2343,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2441,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2504,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2953,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,14 +2981,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2993,14 +2999,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3013,14 +3019,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3046,18 +3052,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3142,8 +3148,12 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
@@ -3154,8 +3164,12 @@
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -5127,17 +5141,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/JOBCON/SUMAGUI, GEDRICK M..xlsx
+++ b/JOBCON/SUMAGUI, GEDRICK M..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>8/2-4/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>01/08-19/2024</t>
   </si>
 </sst>
 </file>
@@ -554,6 +563,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -566,20 +584,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,7 +1044,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1087,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1151,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1211,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1277,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1340,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1438,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1497,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1562,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1605,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1680,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1866,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1932,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1990,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2056,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2112,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2187,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2230,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2296,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2352,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2450,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2513,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2579,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2948,12 +2957,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,14 +2990,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2999,14 +3008,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3019,14 +3028,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3052,18 +3061,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3172,7 +3181,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40">
+        <v>45170</v>
+      </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -3188,7 +3199,9 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40">
+        <v>45200</v>
+      </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -3204,7 +3217,9 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40">
+        <v>45231</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -3220,7 +3235,9 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="40">
+        <v>45261</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -3236,7 +3253,9 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="43"/>
@@ -3252,20 +3271,28 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="43"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12">
+        <v>10</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -3348,7 +3375,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3364,7 +3391,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3556,7 +3583,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3572,7 +3599,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3764,7 +3791,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3780,7 +3807,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3972,7 +3999,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3988,7 +4015,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4180,7 +4207,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4196,7 +4223,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -5124,34 +5151,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
